--- a/excel/master.xlsx
+++ b/excel/master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Customers"/>
@@ -11217,7 +11217,7 @@
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
+    <sheetView workbookViewId="0">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
@@ -11695,7 +11695,7 @@
   </sheetPr>
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
